--- a/data/GS.xlsx
+++ b/data/GS.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -371,6 +371,21 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Corequisites</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Concurrent</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Recommended</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Terms Typically Offered</t>
         </is>
       </c>
@@ -391,7 +406,22 @@
           <t>Must be in good standing in a graduate program at Cal Poly.</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
